--- a/rapports/evaluation/DRA_evaluation_Stefana2.xlsx
+++ b/rapports/evaluation/DRA_evaluation_Stefana2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Détails des coûts'!$A$1:$I$149</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Résumé financier'!$A$1:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
   <si>
     <t>Projet Longue Durée en SI (2010/2011)</t>
   </si>
@@ -84,9 +84,6 @@
     <t>22, Délai du retour sur investissement</t>
   </si>
   <si>
-    <t>1 an et 8 mois</t>
-  </si>
-  <si>
     <t>II, Mise en œuvre</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Coût J/H                                           (z)</t>
   </si>
   <si>
-    <t>Application stock</t>
-  </si>
-  <si>
     <t>Total (c) category D</t>
   </si>
   <si>
@@ -271,6 +265,264 @@
   </si>
   <si>
     <t>II. COUTS DE FONCTIONNEMENT ET EXPLOITATION (POSSESSION)</t>
+  </si>
+  <si>
+    <t>Total investi                   (x)</t>
+  </si>
+  <si>
+    <t>Pourcentage maintenance         (y)</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Total Section 1</t>
+  </si>
+  <si>
+    <t>2. Exploitation</t>
+  </si>
+  <si>
+    <t>a) Abonnements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Désignation                                              </t>
+  </si>
+  <si>
+    <t>Montant mensuel                                    x</t>
+  </si>
+  <si>
+    <t>Nombre de mois                                    y</t>
+  </si>
+  <si>
+    <t>Total                                                                           =x*y</t>
+  </si>
+  <si>
+    <t>Total (a) travel</t>
+  </si>
+  <si>
+    <t>b) Charges structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de structure                                              </t>
+  </si>
+  <si>
+    <t>Total                                    =x*y</t>
+  </si>
+  <si>
+    <t>Total (b) subsistence</t>
+  </si>
+  <si>
+    <t>Total section 2 (a+b)</t>
+  </si>
+  <si>
+    <t>3. Logistique</t>
+  </si>
+  <si>
+    <t>Type of equipment</t>
+  </si>
+  <si>
+    <t>Number of days hired                                         x</t>
+  </si>
+  <si>
+    <t>Average cost per day                                            y</t>
+  </si>
+  <si>
+    <t>Total                                             =x*y</t>
+  </si>
+  <si>
+    <t>Total (b) equipment</t>
+  </si>
+  <si>
+    <t>Total Section 3</t>
+  </si>
+  <si>
+    <t>4. Charges de personnels</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>nombre de personnes</t>
+  </si>
+  <si>
+    <t>coût mensuel/pers</t>
+  </si>
+  <si>
+    <t>coût annuel/pers</t>
+  </si>
+  <si>
+    <t>Total                                                                                         =x*y</t>
+  </si>
+  <si>
+    <t>Equipe projet ERP</t>
+  </si>
+  <si>
+    <t>Formation Utilisateurs</t>
+  </si>
+  <si>
+    <t>Tests d'intégration</t>
+  </si>
+  <si>
+    <t>Gestion de projet</t>
+  </si>
+  <si>
+    <t>Total section 4</t>
+  </si>
+  <si>
+    <t>5. Autres charges de possession (fonctionnement)</t>
+  </si>
+  <si>
+    <t>.........................................................................</t>
+  </si>
+  <si>
+    <t>Total Section 5</t>
+  </si>
+  <si>
+    <t>Dépenses - total Fonctionnement/Exploitation</t>
+  </si>
+  <si>
+    <t>Dépenses - total général</t>
+  </si>
+  <si>
+    <t>Nombre d'unités/mois</t>
+  </si>
+  <si>
+    <t>Prix par unité</t>
+  </si>
+  <si>
+    <t>Prix par gain/mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bon de commande </t>
+  </si>
+  <si>
+    <t>Bon de PR</t>
+  </si>
+  <si>
+    <t>Coût heures supplémentaires comptable fin de mois</t>
+  </si>
+  <si>
+    <t>Gain total par mois</t>
+  </si>
+  <si>
+    <t>Tableau Financier</t>
+  </si>
+  <si>
+    <t>Nom de l'équipe :</t>
+  </si>
+  <si>
+    <t>* Chaque dépenses doit faiure l'objet d'un type de financement (fond propre, prêt, …)</t>
+  </si>
+  <si>
+    <t>I. Résumé des dépenses</t>
+  </si>
+  <si>
+    <t>Type de financement</t>
+  </si>
+  <si>
+    <t>Dépenses</t>
+  </si>
+  <si>
+    <t>Types de coûts</t>
+  </si>
+  <si>
+    <t>Costs (€)</t>
+  </si>
+  <si>
+    <t>1. Investissements</t>
+  </si>
+  <si>
+    <t>2. Maintenance</t>
+  </si>
+  <si>
+    <t>fond propre</t>
+  </si>
+  <si>
+    <t>3. Exploitation</t>
+  </si>
+  <si>
+    <t>4. Logistique</t>
+  </si>
+  <si>
+    <t>5. Charges de personnels</t>
+  </si>
+  <si>
+    <t>6. Autres</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>(identique au the total de Table 2)</t>
+  </si>
+  <si>
+    <t>II. Amortissement</t>
+  </si>
+  <si>
+    <t>Côut de l'investissement</t>
+  </si>
+  <si>
+    <t>Taux</t>
+  </si>
+  <si>
+    <t>durée (mois)</t>
+  </si>
+  <si>
+    <t>coût du prêt</t>
+  </si>
+  <si>
+    <t>coût global</t>
+  </si>
+  <si>
+    <t>Type de financment</t>
+  </si>
+  <si>
+    <t>1. Développement</t>
+  </si>
+  <si>
+    <t>III. Gains</t>
+  </si>
+  <si>
+    <t>IV. ROI : solution standard</t>
+  </si>
+  <si>
+    <t>31, Montant du retour sur investissement (ROI)</t>
+  </si>
+  <si>
+    <t>32, Délai du retour sur investissement</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>e) Acquisition de logiciel</t>
+  </si>
+  <si>
+    <t>Developpement du logiciel</t>
+  </si>
+  <si>
+    <t>Integration du nouveau système</t>
+  </si>
+  <si>
+    <t>Formation utilisateurs administration</t>
+  </si>
+  <si>
+    <t>g) Formation des acteurs et mise en oeuvre du logiciel specifique</t>
+  </si>
+  <si>
+    <t>Espace et maintenance du stock et des 40 ateliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bon affectation </t>
+  </si>
+  <si>
+    <t>Bon maintenance</t>
+  </si>
+  <si>
+    <t>31, Gains (estimation) /an</t>
+  </si>
+  <si>
+    <t>maintenance logiciels</t>
   </si>
   <si>
     <r>
@@ -284,285 +536,27 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Maintenance</t>
+      <t>Maintenance (calculée pour 5 ans)</t>
     </r>
   </si>
   <si>
-    <t>Total investi                   (x)</t>
-  </si>
-  <si>
-    <t>Pourcentage maintenance         (y)</t>
-  </si>
-  <si>
-    <t>maintenance logiciels (ERP…)</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Total Section 1</t>
-  </si>
-  <si>
-    <t>2. Exploitation</t>
-  </si>
-  <si>
-    <t>a) Abonnements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Désignation                                              </t>
-  </si>
-  <si>
-    <t>Montant mensuel                                    x</t>
-  </si>
-  <si>
-    <t>Nombre de mois                                    y</t>
-  </si>
-  <si>
-    <t>Total                                                                           =x*y</t>
-  </si>
-  <si>
-    <t>Total (a) travel</t>
-  </si>
-  <si>
-    <t>b) Charges structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type de structure                                              </t>
-  </si>
-  <si>
-    <t>Total                                    =x*y</t>
-  </si>
-  <si>
-    <t>Total (b) subsistence</t>
-  </si>
-  <si>
-    <t>Total section 2 (a+b)</t>
-  </si>
-  <si>
-    <t>3. Logistique</t>
-  </si>
-  <si>
-    <t>Type of equipment</t>
-  </si>
-  <si>
-    <t>Number of days hired                                         x</t>
-  </si>
-  <si>
-    <t>Average cost per day                                            y</t>
-  </si>
-  <si>
-    <t>Total                                             =x*y</t>
-  </si>
-  <si>
-    <t>Total (b) equipment</t>
-  </si>
-  <si>
-    <t>Total Section 3</t>
-  </si>
-  <si>
-    <t>4. Charges de personnels</t>
-  </si>
-  <si>
-    <t>Fonction</t>
-  </si>
-  <si>
-    <t>nombre de personnes</t>
-  </si>
-  <si>
-    <t>coût mensuel/pers</t>
-  </si>
-  <si>
-    <t>coût annuel/pers</t>
-  </si>
-  <si>
-    <t>Total                                                                                         =x*y</t>
-  </si>
-  <si>
-    <t>Equipe projet ERP</t>
-  </si>
-  <si>
-    <t>Formation Utilisateurs</t>
-  </si>
-  <si>
-    <t>Tests d'intégration</t>
-  </si>
-  <si>
-    <t>Gestion de projet</t>
-  </si>
-  <si>
-    <t>Total section 4</t>
-  </si>
-  <si>
-    <t>5. Autres charges de possession (fonctionnement)</t>
-  </si>
-  <si>
-    <t>.........................................................................</t>
-  </si>
-  <si>
-    <t>Total Section 5</t>
-  </si>
-  <si>
-    <t>Dépenses - total Fonctionnement/Exploitation</t>
-  </si>
-  <si>
-    <t>Dépenses - total général</t>
-  </si>
-  <si>
-    <t>Nombre d'unités/mois</t>
-  </si>
-  <si>
-    <t>Prix par unité</t>
-  </si>
-  <si>
-    <t>Prix par gain/mois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bon de commande </t>
-  </si>
-  <si>
-    <t>Bon de PR</t>
-  </si>
-  <si>
-    <t>Coût heures supplémentaires comptable fin de mois</t>
-  </si>
-  <si>
-    <t>Gain total par mois</t>
-  </si>
-  <si>
-    <t>Tableau Financier</t>
-  </si>
-  <si>
-    <t>Nom de l'équipe :</t>
-  </si>
-  <si>
-    <t>* Chaque dépenses doit faiure l'objet d'un type de financement (fond propre, prêt, …)</t>
-  </si>
-  <si>
-    <t>I. Résumé des dépenses</t>
-  </si>
-  <si>
-    <t>Type de financement</t>
-  </si>
-  <si>
-    <t>Dépenses</t>
-  </si>
-  <si>
-    <t>Types de coûts</t>
-  </si>
-  <si>
-    <t>Costs (€)</t>
-  </si>
-  <si>
-    <t>1. Investissements</t>
-  </si>
-  <si>
-    <t>2. Maintenance</t>
-  </si>
-  <si>
-    <t>fond propre</t>
-  </si>
-  <si>
-    <t>3. Exploitation</t>
-  </si>
-  <si>
-    <t>4. Logistique</t>
-  </si>
-  <si>
-    <t>5. Charges de personnels</t>
-  </si>
-  <si>
-    <t>6. Autres</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>(identique au the total de Table 2)</t>
-  </si>
-  <si>
-    <t>II. Amortissement</t>
-  </si>
-  <si>
-    <t>Côut de l'investissement</t>
-  </si>
-  <si>
-    <t>Taux</t>
-  </si>
-  <si>
-    <t>durée (mois)</t>
-  </si>
-  <si>
-    <t>coût du prêt</t>
-  </si>
-  <si>
-    <t>coût global</t>
-  </si>
-  <si>
-    <t>Type de financment</t>
-  </si>
-  <si>
-    <t>1. Développement</t>
-  </si>
-  <si>
-    <t>III. Gains</t>
-  </si>
-  <si>
-    <t>IV. ROI : solution standard</t>
-  </si>
-  <si>
-    <t>31, Montant du retour sur investissement (ROI)</t>
-  </si>
-  <si>
-    <t>32, Délai du retour sur investissement</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>e) Acquisition de logiciel</t>
-  </si>
-  <si>
-    <t>Developpement du logiciel</t>
-  </si>
-  <si>
-    <t>Integration du nouveau système</t>
-  </si>
-  <si>
-    <t>Formation utilisateurs administration</t>
-  </si>
-  <si>
-    <t>g) Formation des acteurs et mise en oeuvre du logiciel specifique</t>
-  </si>
-  <si>
-    <t>Espace et maintenance du stock et des 40 ateliers</t>
-  </si>
-  <si>
-    <t>Primes pour les personnes disponibilisées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bon affectation </t>
-  </si>
-  <si>
-    <t>Bon maintenance</t>
-  </si>
-  <si>
-    <t>31, Gains (estimation) /an</t>
-  </si>
-  <si>
-    <t>2,39 ans</t>
-  </si>
-  <si>
-    <t>1 an et 5 mois</t>
+    <t>Primes pour les personnes licenciées</t>
+  </si>
+  <si>
+    <t>2,22 ans</t>
+  </si>
+  <si>
+    <t>2 ans et 3 mois</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1364,11 +1358,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1380,9 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1459,6 +1453,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1809,14 +1808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="23" style="1" customWidth="1"/>
@@ -1825,12 +1824,12 @@
     <col min="6" max="255" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1838,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1848,14 +1847,14 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1864,28 +1863,28 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="25.5" customHeight="1">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -1896,26 +1895,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="16">
         <v>470990</v>
       </c>
-      <c r="C15" s="16">
-        <f>'Détails des coûts'!H76</f>
-        <v>190350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1923,185 +1919,174 @@
         <f>B15*0.15</f>
         <v>70648.5</v>
       </c>
-      <c r="C16" s="16">
-        <f>C15*0.57</f>
-        <v>108499.49999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="16">
         <f>'C. Gains'!E30 *12</f>
-        <v>196560</v>
-      </c>
-      <c r="C18" s="16">
-        <f>'C. Gains'!E30</f>
-        <v>16380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>211665</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>1.08</v>
-      </c>
-      <c r="C19" s="16">
-        <f>C18-'Détails des coûts'!H92-'Détails des coûts'!H111</f>
-        <v>-84260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1.25</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="159" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="20" t="s">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="24.75" customHeight="1">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2113,17 +2098,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="46.1640625" style="24" customWidth="1"/>
@@ -2136,12 +2121,12 @@
     <col min="9" max="16384" width="9.33203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1">
+    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="27" t="str">
         <f>'Résumé financier'!A3</f>
         <v>Projet Longue Durée en SI (2010/2011)</v>
@@ -2150,49 +2135,49 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="H3" s="32"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" ht="6.75" customHeight="1">
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.149999999999999" customHeight="1">
-      <c r="B8" s="38" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -2209,9 +2194,9 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="38">
         <v>1</v>
@@ -2228,9 +2213,9 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
@@ -2247,9 +2232,9 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="38">
         <v>3</v>
@@ -2266,9 +2251,9 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="38">
         <v>30</v>
@@ -2285,9 +2270,9 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="43">
         <f>SUM(C8:C12)</f>
@@ -2299,7 +2284,7 @@
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47">
@@ -2307,7 +2292,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -2315,37 +2300,37 @@
       <c r="F14" s="26"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:10" ht="8.1" customHeight="1">
+    <row r="16" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5">
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="38" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="38">
         <v>0</v>
@@ -2362,7 +2347,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -2373,7 +2358,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -2384,7 +2369,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2395,7 +2380,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -2406,9 +2391,9 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="43">
         <f>SUM(C18:C22)</f>
@@ -2420,7 +2405,7 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="47">
@@ -2428,40 +2413,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1">
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1">
+    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="154"/>
+    </row>
+    <row r="26" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="48"/>
+      <c r="H26" s="154"/>
+    </row>
+    <row r="27" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="H25" s="152"/>
-    </row>
-    <row r="26" spans="2:8" ht="6.75" customHeight="1">
-      <c r="B26" s="48"/>
-      <c r="H26" s="152"/>
-    </row>
-    <row r="27" spans="2:8" ht="25.5">
-      <c r="B27" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="38">
         <v>4</v>
@@ -2478,7 +2463,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2489,7 +2474,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2500,7 +2485,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2511,7 +2496,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2522,15 +2507,15 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="26"/>
       <c r="F33" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="47">
@@ -2538,7 +2523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="20.25" customHeight="1">
+    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -2547,38 +2532,36 @@
       <c r="G34" s="26"/>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1">
+    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="154"/>
+    </row>
+    <row r="36" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="H36" s="154"/>
+    </row>
+    <row r="37" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="152"/>
-    </row>
-    <row r="36" spans="2:8" ht="8.25" customHeight="1">
-      <c r="B36" s="48"/>
-      <c r="H36" s="152"/>
-    </row>
-    <row r="37" spans="2:8" ht="25.5">
-      <c r="B37" s="52" t="s">
+      <c r="C37" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="D37" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="E37" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="F37" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="38" t="s">
-        <v>65</v>
-      </c>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="49"/>
@@ -2588,7 +2571,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -2599,7 +2582,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
@@ -2610,7 +2593,7 @@
       </c>
       <c r="H40" s="41"/>
     </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -2621,7 +2604,7 @@
       </c>
       <c r="H41" s="41"/>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -2632,9 +2615,9 @@
       </c>
       <c r="H42" s="41"/>
     </row>
-    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="43">
         <f>SUM(C38:C42)</f>
@@ -2646,7 +2629,7 @@
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G43" s="46"/>
       <c r="H43" s="47">
@@ -2654,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="21" customHeight="1">
+    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -2663,54 +2646,52 @@
       <c r="G44" s="26"/>
       <c r="H44" s="41"/>
     </row>
-    <row r="45" spans="2:8" ht="21" customHeight="1">
+    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="152"/>
-    </row>
-    <row r="46" spans="2:8" ht="21" customHeight="1">
+        <v>153</v>
+      </c>
+      <c r="H45" s="154"/>
+    </row>
+    <row r="46" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="48"/>
-      <c r="H46" s="152"/>
-    </row>
-    <row r="47" spans="2:8" ht="34.15" customHeight="1">
+      <c r="H46" s="154"/>
+    </row>
+    <row r="47" spans="2:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="F47" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="41"/>
     </row>
-    <row r="48" spans="2:8" ht="21" customHeight="1">
+    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C48" s="38">
         <v>1</v>
       </c>
       <c r="D48" s="148">
-        <v>150000</v>
-      </c>
-      <c r="E48" s="39">
-        <v>0.05</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="E48" s="39"/>
       <c r="F48" s="40">
         <f>C48*D48+C48*D48*E48</f>
-        <v>157500</v>
+        <v>300000</v>
       </c>
       <c r="H48" s="41"/>
     </row>
-    <row r="49" spans="2:8" ht="21" customHeight="1">
+    <row r="49" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -2718,7 +2699,7 @@
       <c r="F49" s="40"/>
       <c r="H49" s="41"/>
     </row>
-    <row r="50" spans="2:8" ht="21" customHeight="1">
+    <row r="50" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -2729,7 +2710,7 @@
       </c>
       <c r="H50" s="41"/>
     </row>
-    <row r="51" spans="2:8" ht="21" customHeight="1">
+    <row r="51" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
@@ -2740,7 +2721,7 @@
       </c>
       <c r="H51" s="41"/>
     </row>
-    <row r="52" spans="2:8" ht="21" customHeight="1">
+    <row r="52" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -2751,9 +2732,9 @@
       </c>
       <c r="H52" s="41"/>
     </row>
-    <row r="53" spans="2:8" ht="21" customHeight="1">
+    <row r="53" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="43">
         <f>SUM(C48:C52)</f>
@@ -2761,19 +2742,19 @@
       </c>
       <c r="D53" s="43">
         <f>SUM(D48:D52)</f>
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G53" s="46"/>
       <c r="H53" s="47">
         <f>F48+F49+F50+F51+F52</f>
-        <v>157500</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="21" customHeight="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -2782,37 +2763,37 @@
       <c r="G54" s="26"/>
       <c r="H54" s="41"/>
     </row>
-    <row r="55" spans="2:8" ht="21" customHeight="1">
+    <row r="55" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="154"/>
+    </row>
+    <row r="56" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="48"/>
+      <c r="H56" s="154"/>
+    </row>
+    <row r="57" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="152"/>
-    </row>
-    <row r="56" spans="2:8" ht="21" customHeight="1">
-      <c r="B56" s="48"/>
-      <c r="H56" s="152"/>
-    </row>
-    <row r="57" spans="2:8" ht="28.7" customHeight="1">
-      <c r="B57" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="E57" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57" s="41"/>
     </row>
-    <row r="58" spans="2:8" ht="21" customHeight="1">
+    <row r="58" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C58" s="38">
         <v>7</v>
@@ -2829,9 +2810,9 @@
       </c>
       <c r="H58" s="41"/>
     </row>
-    <row r="59" spans="2:8" ht="21" customHeight="1">
+    <row r="59" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="38">
         <v>5</v>
@@ -2846,7 +2827,7 @@
       </c>
       <c r="H59" s="41"/>
     </row>
-    <row r="60" spans="2:8" ht="21" customHeight="1">
+    <row r="60" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -2854,7 +2835,7 @@
       <c r="F60" s="40"/>
       <c r="H60" s="41"/>
     </row>
-    <row r="61" spans="2:8" ht="21" customHeight="1">
+    <row r="61" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
@@ -2862,7 +2843,7 @@
       <c r="F61" s="40"/>
       <c r="H61" s="41"/>
     </row>
-    <row r="62" spans="2:8" ht="21" customHeight="1">
+    <row r="62" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -2873,9 +2854,9 @@
       </c>
       <c r="H62" s="41"/>
     </row>
-    <row r="63" spans="2:8" ht="21" customHeight="1">
+    <row r="63" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="43">
         <f>SUM(C59:C62)</f>
@@ -2887,7 +2868,7 @@
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G63" s="46"/>
       <c r="H63" s="47">
@@ -2895,7 +2876,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="21" customHeight="1">
+    <row r="64" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -2904,37 +2885,37 @@
       <c r="G64" s="26"/>
       <c r="H64" s="41"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B65" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="152"/>
-    </row>
-    <row r="66" spans="1:10" ht="7.5" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="H65" s="154"/>
+    </row>
+    <row r="66" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="48"/>
-      <c r="H66" s="152"/>
-    </row>
-    <row r="67" spans="1:10" ht="25.5" customHeight="1">
+      <c r="H66" s="154"/>
+    </row>
+    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67" s="41"/>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C68" s="38">
         <v>3</v>
@@ -2949,9 +2930,9 @@
       </c>
       <c r="H68" s="41"/>
     </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="38">
         <v>4</v>
@@ -2966,7 +2947,7 @@
       </c>
       <c r="H69" s="41"/>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
@@ -2974,7 +2955,7 @@
       <c r="F70" s="40"/>
       <c r="H70" s="41"/>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
@@ -2982,7 +2963,7 @@
       <c r="F71" s="40"/>
       <c r="H71" s="41"/>
     </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
@@ -2990,7 +2971,7 @@
       <c r="F72" s="40"/>
       <c r="H72" s="41"/>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
@@ -3001,9 +2982,9 @@
       </c>
       <c r="H73" s="41"/>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="43">
         <f>SUM(C68:C73)</f>
@@ -3015,7 +2996,7 @@
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G74" s="46"/>
       <c r="H74" s="47">
@@ -3023,7 +3004,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="8.1" customHeight="1">
+    <row r="75" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -3032,23 +3013,23 @@
       <c r="G75" s="26"/>
       <c r="H75" s="41"/>
     </row>
-    <row r="76" spans="1:10" ht="19.5" customHeight="1">
+    <row r="76" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="56"/>
       <c r="E76" s="26"/>
       <c r="F76" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G76" s="58"/>
       <c r="H76" s="59">
         <f>H13+H23+H33+H43+H53+H63+H74</f>
-        <v>190350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="19.5" customHeight="1">
+        <v>332850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -3057,7 +3038,7 @@
       <c r="G77" s="26"/>
       <c r="H77" s="61"/>
     </row>
-    <row r="78" spans="1:10" ht="19.5" customHeight="1">
+    <row r="78" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -3066,14 +3047,14 @@
       <c r="G78" s="26"/>
       <c r="H78" s="61"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1">
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H79" s="32"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" ht="9" customHeight="1">
+    <row r="80" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -3082,32 +3063,32 @@
       <c r="G80" s="26"/>
       <c r="H80" s="61"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="6.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H82" s="50"/>
       <c r="I82" s="36"/>
     </row>
-    <row r="83" spans="1:9" ht="28.5" customHeight="1">
+    <row r="83" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" s="36"/>
     </row>
-    <row r="84" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="84" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="62" t="str">
         <f>B5</f>
         <v>a) Matériel informatique</v>
@@ -3126,7 +3107,7 @@
       </c>
       <c r="H84" s="41"/>
     </row>
-    <row r="85" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="85" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="62" t="str">
         <f>B15</f>
         <v>b) Portables, mobiles, …</v>
@@ -3143,7 +3124,7 @@
       </c>
       <c r="H85" s="41"/>
     </row>
-    <row r="86" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="86" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="62" t="str">
         <f>B25</f>
         <v>c) Elements actifs de réseau</v>
@@ -3162,7 +3143,7 @@
       </c>
       <c r="H86" s="41"/>
     </row>
-    <row r="87" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="87" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="62" t="str">
         <f>B35</f>
         <v>d) Réalisation des applications (ratio : 10j/outil)</v>
@@ -3176,9 +3157,9 @@
       </c>
       <c r="H87" s="41"/>
     </row>
-    <row r="88" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="88" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="62" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C88" s="49">
         <v>150000</v>
@@ -3193,9 +3174,9 @@
       </c>
       <c r="H88" s="41"/>
     </row>
-    <row r="89" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="89" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="39"/>
@@ -3206,9 +3187,9 @@
       </c>
       <c r="H89" s="41"/>
     </row>
-    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="40">
         <f>SUM(C84:C89)</f>
@@ -3217,7 +3198,7 @@
       <c r="D90" s="43"/>
       <c r="E90" s="44"/>
       <c r="F90" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90" s="46"/>
       <c r="H90" s="47">
@@ -3225,7 +3206,7 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12" customHeight="1">
+    <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -3233,9 +3214,9 @@
       <c r="F91" s="26"/>
       <c r="H91" s="41"/>
     </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="63" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G92" s="64"/>
       <c r="H92" s="40">
@@ -3243,45 +3224,45 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H93" s="65"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="1:9" ht="9" customHeight="1">
+    <row r="95" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="66"/>
       <c r="H95" s="65"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H96" s="50"/>
     </row>
-    <row r="97" spans="2:8" ht="6.75" customHeight="1">
+    <row r="97" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H97" s="41"/>
     </row>
-    <row r="98" spans="2:8" ht="25.5">
+    <row r="98" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B98" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H98" s="41"/>
     </row>
-    <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
@@ -3289,7 +3270,7 @@
       <c r="F99" s="40"/>
       <c r="H99" s="41"/>
     </row>
-    <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
@@ -3297,7 +3278,7 @@
       <c r="F100" s="40"/>
       <c r="H100" s="41"/>
     </row>
-    <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
@@ -3308,13 +3289,13 @@
       </c>
       <c r="H101" s="41"/>
     </row>
-    <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
       <c r="F102" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G102" s="46"/>
       <c r="H102" s="47">
@@ -3322,9 +3303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
@@ -3333,26 +3314,26 @@
       <c r="G103" s="26"/>
       <c r="H103" s="41"/>
     </row>
-    <row r="104" spans="2:8" ht="6.75" customHeight="1">
+    <row r="104" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H104" s="41"/>
     </row>
-    <row r="105" spans="2:8" ht="27.75" customHeight="1">
+    <row r="105" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D105" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E105" s="52"/>
       <c r="F105" s="53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H105" s="41"/>
     </row>
-    <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
       <c r="D106" s="49"/>
@@ -3363,7 +3344,7 @@
       </c>
       <c r="H106" s="41"/>
     </row>
-    <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="49"/>
@@ -3374,7 +3355,7 @@
       </c>
       <c r="H107" s="41"/>
     </row>
-    <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="49"/>
@@ -3385,13 +3366,13 @@
       </c>
       <c r="H108" s="41"/>
     </row>
-    <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
       <c r="F109" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G109" s="46"/>
       <c r="H109" s="47">
@@ -3399,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
@@ -3408,13 +3389,13 @@
       <c r="G110" s="26"/>
       <c r="H110" s="41"/>
     </row>
-    <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="F111" s="57" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G111" s="58"/>
       <c r="H111" s="59">
@@ -3422,36 +3403,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H112" s="26"/>
     </row>
-    <row r="113" spans="1:8" ht="15">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B113" s="66"/>
       <c r="H113" s="50"/>
     </row>
-    <row r="114" spans="1:8" ht="8.1" customHeight="1">
+    <row r="114" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H114" s="41"/>
     </row>
-    <row r="115" spans="1:8" ht="35.25" customHeight="1">
+    <row r="115" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E115" s="35"/>
       <c r="F115" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H115" s="41"/>
     </row>
-    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="49"/>
@@ -3462,7 +3443,7 @@
       </c>
       <c r="H116" s="41"/>
     </row>
-    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
       <c r="D117" s="49"/>
@@ -3473,7 +3454,7 @@
       </c>
       <c r="H117" s="41"/>
     </row>
-    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="49"/>
@@ -3484,7 +3465,7 @@
       </c>
       <c r="H118" s="41"/>
     </row>
-    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
       <c r="D119" s="49"/>
@@ -3495,13 +3476,13 @@
       </c>
       <c r="H119" s="41"/>
     </row>
-    <row r="120" spans="1:8" ht="25.5">
+    <row r="120" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
       <c r="F120" s="68" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G120" s="46"/>
       <c r="H120" s="47">
@@ -3509,22 +3490,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="8.1" customHeight="1">
+    <row r="121" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H121" s="41"/>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F122" s="51"/>
       <c r="G122" s="26"/>
       <c r="H122" s="41"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F123" s="69" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G123" s="70"/>
       <c r="H123" s="71"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F124" s="72"/>
       <c r="G124" s="73"/>
       <c r="H124" s="74">
@@ -3532,40 +3513,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F125" s="75"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
     </row>
-    <row r="126" spans="1:8" ht="15">
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="41"/>
+    </row>
+    <row r="128" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="8.1" customHeight="1">
-      <c r="H127" s="41"/>
-    </row>
-    <row r="128" spans="1:8" ht="31.5" customHeight="1">
-      <c r="B128" s="37" t="s">
+      <c r="F128" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="H128" s="41"/>
+    </row>
+    <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="D128" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E128" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F128" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H128" s="41"/>
-    </row>
-    <row r="129" spans="1:8" ht="18" customHeight="1">
-      <c r="B129" s="38" t="s">
-        <v>110</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
@@ -3576,9 +3557,9 @@
       </c>
       <c r="H129" s="41"/>
     </row>
-    <row r="130" spans="1:8" ht="18" customHeight="1">
+    <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
@@ -3586,9 +3567,9 @@
       <c r="F130" s="40"/>
       <c r="H130" s="41"/>
     </row>
-    <row r="131" spans="1:8" ht="18" customHeight="1">
+    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
@@ -3596,9 +3577,9 @@
       <c r="F131" s="40"/>
       <c r="H131" s="41"/>
     </row>
-    <row r="132" spans="1:8" ht="18" customHeight="1">
+    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
@@ -3606,13 +3587,13 @@
       <c r="F132" s="40"/>
       <c r="H132" s="41"/>
     </row>
-    <row r="133" spans="1:8" ht="18" customHeight="1">
+    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="64"/>
       <c r="C133" s="64"/>
       <c r="D133" s="64"/>
       <c r="E133" s="64"/>
       <c r="F133" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G133" s="46"/>
       <c r="H133" s="47">
@@ -3620,37 +3601,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="12.75" customHeight="1">
+    <row r="134" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="76"/>
       <c r="H134" s="41"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F135" s="75"/>
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
     </row>
-    <row r="136" spans="1:8" ht="15">
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F136" s="51"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="77"/>
       <c r="F138" s="76"/>
       <c r="H138" s="41"/>
     </row>
-    <row r="139" spans="1:8" ht="14.25" customHeight="1">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="77"/>
       <c r="F139" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H139" s="41"/>
     </row>
-    <row r="140" spans="1:8" ht="51.2" customHeight="1">
+    <row r="140" spans="1:8" ht="51.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" s="79"/>
       <c r="D140" s="41"/>
@@ -3660,9 +3641,9 @@
       </c>
       <c r="H140" s="41"/>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="81" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C141" s="79"/>
       <c r="D141" s="41"/>
@@ -3670,13 +3651,13 @@
       <c r="F141" s="80"/>
       <c r="H141" s="41"/>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="51"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" s="82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G142" s="58"/>
       <c r="H142" s="83">
@@ -3684,7 +3665,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="51"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
@@ -3693,18 +3674,18 @@
       <c r="G143" s="26"/>
       <c r="H143" s="41"/>
     </row>
-    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="84"/>
       <c r="C144" s="55"/>
       <c r="D144" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E144" s="85"/>
       <c r="F144" s="55"/>
       <c r="G144" s="26"/>
       <c r="H144" s="83"/>
     </row>
-    <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="51"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -3713,13 +3694,13 @@
       <c r="G145" s="26"/>
       <c r="H145" s="41"/>
     </row>
-    <row r="146" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H146" s="41"/>
     </row>
-    <row r="147" spans="2:8" ht="15">
+    <row r="147" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B147" s="26"/>
       <c r="C147" s="153" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D147" s="153"/>
       <c r="E147" s="153"/>
@@ -3727,208 +3708,208 @@
       <c r="G147" s="26"/>
       <c r="H147" s="59">
         <f>H76+H92+H111+H124+H133+H142</f>
-        <v>470990</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
+        <v>613490</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H148" s="26"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H149" s="26"/>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H151" s="26"/>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H152" s="26"/>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H156" s="26"/>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H159" s="26"/>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H160" s="26"/>
     </row>
-    <row r="161" spans="8:8">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H161" s="26"/>
     </row>
-    <row r="162" spans="8:8">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H162" s="26"/>
     </row>
-    <row r="163" spans="8:8">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H163" s="26"/>
     </row>
-    <row r="164" spans="8:8">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H164" s="26"/>
     </row>
-    <row r="165" spans="8:8">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H165" s="26"/>
     </row>
-    <row r="166" spans="8:8">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H166" s="26"/>
     </row>
-    <row r="167" spans="8:8">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H167" s="26"/>
     </row>
-    <row r="168" spans="8:8">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H168" s="26"/>
     </row>
-    <row r="169" spans="8:8">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H169" s="26"/>
     </row>
-    <row r="170" spans="8:8">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H170" s="26"/>
     </row>
-    <row r="171" spans="8:8">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H171" s="26"/>
     </row>
-    <row r="172" spans="8:8">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H172" s="26"/>
     </row>
-    <row r="173" spans="8:8">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H173" s="26"/>
     </row>
-    <row r="174" spans="8:8">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H174" s="26"/>
     </row>
-    <row r="175" spans="8:8">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H175" s="26"/>
     </row>
-    <row r="176" spans="8:8">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H176" s="26"/>
     </row>
-    <row r="177" spans="8:8">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H177" s="26"/>
     </row>
-    <row r="178" spans="8:8">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H178" s="26"/>
     </row>
-    <row r="179" spans="8:8">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H179" s="26"/>
     </row>
-    <row r="180" spans="8:8">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H180" s="26"/>
     </row>
-    <row r="181" spans="8:8">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H181" s="26"/>
     </row>
-    <row r="182" spans="8:8">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H182" s="26"/>
     </row>
-    <row r="183" spans="8:8">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H183" s="26"/>
     </row>
-    <row r="184" spans="8:8">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H184" s="26"/>
     </row>
-    <row r="185" spans="8:8">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H185" s="26"/>
     </row>
-    <row r="186" spans="8:8">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H186" s="26"/>
     </row>
-    <row r="187" spans="8:8">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H187" s="26"/>
     </row>
-    <row r="188" spans="8:8">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H188" s="26"/>
     </row>
-    <row r="189" spans="8:8">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H189" s="26"/>
     </row>
-    <row r="190" spans="8:8">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H190" s="26"/>
     </row>
-    <row r="191" spans="8:8">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H191" s="26"/>
     </row>
-    <row r="192" spans="8:8">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H192" s="26"/>
     </row>
-    <row r="193" spans="8:8">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H193" s="26"/>
     </row>
-    <row r="194" spans="8:8">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H194" s="26"/>
     </row>
-    <row r="195" spans="8:8">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H195" s="26"/>
     </row>
-    <row r="196" spans="8:8">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H196" s="26"/>
     </row>
-    <row r="197" spans="8:8">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H197" s="26"/>
     </row>
-    <row r="198" spans="8:8">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H198" s="26"/>
     </row>
-    <row r="199" spans="8:8">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H199" s="26"/>
     </row>
-    <row r="200" spans="8:8">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H200" s="26"/>
     </row>
-    <row r="201" spans="8:8">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H201" s="26"/>
     </row>
-    <row r="202" spans="8:8">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H202" s="26"/>
     </row>
-    <row r="203" spans="8:8">
+    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H203" s="26"/>
     </row>
-    <row r="204" spans="8:8">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="8:8">
+    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H205" s="26"/>
     </row>
-    <row r="206" spans="8:8">
+    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H206" s="26"/>
     </row>
-    <row r="207" spans="8:8">
+    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H207" s="26"/>
     </row>
-    <row r="208" spans="8:8">
+    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H208" s="26"/>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H209" s="26"/>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H210" s="26"/>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H211" s="26"/>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H212" s="26"/>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H213" s="26"/>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H214" s="26"/>
     </row>
   </sheetData>
@@ -3952,17 +3933,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
@@ -3972,7 +3953,7 @@
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J1" s="86"/>
       <c r="K1" s="87"/>
       <c r="L1" s="88"/>
@@ -3982,7 +3963,7 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="88"/>
     </row>
-    <row r="2" spans="1:17" ht="7.5" customHeight="1">
+    <row r="2" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="89"/>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
@@ -3992,7 +3973,7 @@
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
-    <row r="3" spans="1:17" ht="22.5">
+    <row r="3" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="str">
         <f>'Résumé financier'!A3</f>
         <v>Projet Longue Durée en SI (2010/2011)</v>
@@ -4014,14 +3995,14 @@
       <c r="P3" s="88"/>
       <c r="Q3" s="88"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J4" s="95"/>
       <c r="K4" s="96"/>
       <c r="L4" s="96"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="97"/>
       <c r="J5" s="95"/>
       <c r="K5" s="96"/>
@@ -4029,7 +4010,7 @@
       <c r="M5" s="88"/>
       <c r="N5" s="88"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
       <c r="J6" s="95"/>
       <c r="K6" s="96"/>
@@ -4037,75 +4018,75 @@
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="98"/>
       <c r="B8" s="88"/>
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="88"/>
     </row>
-    <row r="9" spans="1:17" ht="13.5">
+    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="99"/>
       <c r="B9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5">
+    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="99"/>
       <c r="B10" s="88"/>
       <c r="K10" s="88"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="88"/>
       <c r="K11" s="88"/>
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="97"/>
       <c r="B13" s="101"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="97"/>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
       <c r="F14" s="101"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="97"/>
       <c r="B16" s="101"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="97"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="97"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="88"/>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
@@ -4127,16 +4108,16 @@
       <c r="V21" s="88"/>
       <c r="W21" s="88"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5">
+    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="102"/>
       <c r="B22" s="103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E22" s="105"/>
       <c r="F22" s="106"/>
@@ -4156,19 +4137,19 @@
       <c r="V22" s="88"/>
       <c r="W22" s="88"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="107" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23" s="88">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C23" s="88">
         <v>9.5</v>
       </c>
       <c r="D23" s="88">
         <f t="shared" ref="D23:D28" si="0">B23*C23</f>
-        <v>1425</v>
+        <v>190</v>
       </c>
       <c r="E23" s="88"/>
       <c r="F23" s="108"/>
@@ -4188,19 +4169,19 @@
       <c r="V23" s="88"/>
       <c r="W23" s="88"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="107" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24" s="88">
-        <v>150</v>
+        <v>12.5</v>
       </c>
       <c r="C24" s="88">
         <v>9.5</v>
       </c>
       <c r="D24" s="88">
         <f t="shared" si="0"/>
-        <v>1425</v>
+        <v>118.75</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="108"/>
@@ -4220,9 +4201,9 @@
       <c r="V24" s="88"/>
       <c r="W24" s="88"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="151" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B25" s="88">
         <v>200</v>
@@ -4252,19 +4233,19 @@
       <c r="V25" s="88"/>
       <c r="W25" s="88"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="151" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B26" s="88">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C26" s="88">
         <v>9.5</v>
       </c>
       <c r="D26" s="88">
         <f t="shared" si="0"/>
-        <v>2850</v>
+        <v>6650</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="108"/>
@@ -4284,9 +4265,9 @@
       <c r="V26" s="88"/>
       <c r="W26" s="88"/>
     </row>
-    <row r="27" spans="1:23" ht="38.25">
+    <row r="27" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="109" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B27" s="88">
         <v>26</v>
@@ -4316,9 +4297,9 @@
       <c r="V27" s="88"/>
       <c r="W27" s="88"/>
     </row>
-    <row r="28" spans="1:23" ht="45">
+    <row r="28" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="149" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="150">
         <v>40</v>
@@ -4348,7 +4329,7 @@
       <c r="V28" s="88"/>
       <c r="W28" s="88"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="107"/>
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
@@ -4371,16 +4352,16 @@
       <c r="V29" s="88"/>
       <c r="W29" s="88"/>
     </row>
-    <row r="30" spans="1:23" ht="26.85" customHeight="1">
+    <row r="30" spans="1:23" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="107"/>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="D30" s="110" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E30" s="88">
         <f>D23+D24+D25+D26+D27+D28</f>
-        <v>16380</v>
+        <v>17638.75</v>
       </c>
       <c r="F30" s="108"/>
       <c r="I30" s="88"/>
@@ -4399,7 +4380,7 @@
       <c r="V30" s="88"/>
       <c r="W30" s="88"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="107"/>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
@@ -4422,7 +4403,7 @@
       <c r="V31" s="88"/>
       <c r="W31" s="88"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="107"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -4445,7 +4426,7 @@
       <c r="V32" s="88"/>
       <c r="W32" s="88"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="111"/>
       <c r="B33" s="112"/>
       <c r="C33" s="112"/>
@@ -4468,7 +4449,7 @@
       <c r="V33" s="88"/>
       <c r="W33" s="88"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I34" s="88"/>
       <c r="J34" s="88"/>
       <c r="K34" s="88"/>
@@ -4485,7 +4466,7 @@
       <c r="V34" s="88"/>
       <c r="W34" s="88"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
@@ -4502,7 +4483,7 @@
       <c r="V35" s="88"/>
       <c r="W35" s="88"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
@@ -4519,7 +4500,7 @@
       <c r="V36" s="88"/>
       <c r="W36" s="88"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I37" s="88"/>
       <c r="J37" s="88"/>
       <c r="K37" s="88"/>
@@ -4545,17 +4526,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87.1640625" style="114" customWidth="1"/>
     <col min="2" max="2" width="23" style="114" customWidth="1"/>
@@ -4568,19 +4549,19 @@
     <col min="9" max="16384" width="9.33203125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="157" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-    </row>
-    <row r="2" spans="1:8" s="116" customFormat="1" ht="25.5">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+    </row>
+    <row r="2" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="115"/>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -4588,21 +4569,21 @@
       <c r="E2" s="115"/>
       <c r="F2" s="115"/>
     </row>
-    <row r="3" spans="1:8" s="116" customFormat="1" ht="25.5">
+    <row r="3" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-    </row>
-    <row r="4" spans="1:8" s="116" customFormat="1" ht="25.5">
+      <c r="D3" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+    </row>
+    <row r="4" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="119"/>
       <c r="B4" s="120"/>
       <c r="C4" s="115"/>
@@ -4612,80 +4593,80 @@
       <c r="G4" s="121"/>
       <c r="H4" s="121"/>
     </row>
-    <row r="5" spans="1:8" s="122" customFormat="1" ht="23.25"/>
-    <row r="6" spans="1:8" s="122" customFormat="1" ht="23.25">
+    <row r="5" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="123" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="122" customFormat="1" ht="23.25">
+    <row r="7" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="122" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="122" customFormat="1" ht="23.25">
+    <row r="8" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="122" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="122" customFormat="1" ht="23.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="122" customFormat="1" ht="23.25"/>
-    <row r="11" spans="1:8" s="122" customFormat="1" ht="23.25">
+    <row r="10" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="122" customFormat="1" ht="23.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="123"/>
     </row>
-    <row r="13" spans="1:8" s="124" customFormat="1" ht="56.25" customHeight="1">
+    <row r="13" spans="1:8" s="124" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
       <c r="E13" s="125"/>
       <c r="F13" s="126" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="124" customFormat="1" ht="25.5" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="127" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
       <c r="D14" s="128"/>
       <c r="E14" s="126"/>
       <c r="F14" s="128" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="122" customFormat="1" ht="23.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="129" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C15" s="131"/>
       <c r="D15" s="131"/>
       <c r="E15" s="132"/>
       <c r="F15" s="131">
         <f>'Détails des coûts'!H76</f>
-        <v>190350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="122" customFormat="1" ht="23.25">
+        <v>332850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="129" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16" s="131"/>
       <c r="D16" s="131"/>
@@ -4695,12 +4676,12 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="17" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="129" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
@@ -4710,12 +4691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="18" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="129" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="131"/>
@@ -4725,12 +4706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="19" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="131"/>
@@ -4740,12 +4721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="20" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="133" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B20" s="134" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="131"/>
       <c r="D20" s="131"/>
@@ -4755,81 +4736,81 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="21" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="154">
+        <v>138</v>
+      </c>
+      <c r="B21" s="155">
         <f>SUM(B15:B20)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="155"/>
+      <c r="C21" s="156"/>
       <c r="D21" s="136"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="155">
+      <c r="E21" s="157"/>
+      <c r="F21" s="156">
         <f>SUM(F15:F20)</f>
-        <v>470990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="122" customFormat="1" ht="23.25">
+        <v>613490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
+        <v>139</v>
+      </c>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="138"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="155"/>
-    </row>
-    <row r="23" spans="1:6" s="122" customFormat="1" ht="23.25">
+      <c r="E22" s="157"/>
+      <c r="F22" s="156"/>
+    </row>
+    <row r="23" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="139"/>
       <c r="B23" s="140"/>
     </row>
-    <row r="24" spans="1:6" s="122" customFormat="1" ht="23.25"/>
-    <row r="25" spans="1:6" s="122" customFormat="1" ht="23.25">
+    <row r="24" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="61.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A27" s="124"/>
       <c r="B27" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="142" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="142" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="129" t="s">
         <v>147</v>
-      </c>
-      <c r="E27" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.25">
-      <c r="A28" s="127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.25">
-      <c r="A29" s="129" t="s">
-        <v>151</v>
       </c>
       <c r="B29" s="143">
         <f>F15</f>
-        <v>190350</v>
+        <v>332850</v>
       </c>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="145"/>
       <c r="F29" s="146"/>
     </row>
-    <row r="30" spans="1:6" ht="23.25">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="129" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B30" s="130">
         <f>'Détails des coûts'!H92</f>
@@ -4843,9 +4824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="23.25">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="129" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B31" s="130">
         <f>'Détails des coûts'!H102</f>
@@ -4859,9 +4840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23.25">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="129" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B32" s="130">
         <f>'Détails des coûts'!H124</f>
@@ -4875,9 +4856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="23.25">
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B33" s="130">
         <f>'Détails des coûts'!H133</f>
@@ -4888,9 +4869,9 @@
       <c r="E33" s="132"/>
       <c r="F33" s="131"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="133" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B34" s="134">
         <f>'Détails des coûts'!H142</f>
@@ -4904,83 +4885,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="23.25">
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="154">
+        <v>138</v>
+      </c>
+      <c r="B35" s="155">
         <f>SUM(B29:B34)</f>
-        <v>470990</v>
-      </c>
-      <c r="C35" s="155"/>
+        <v>613490</v>
+      </c>
+      <c r="C35" s="156"/>
       <c r="D35" s="136"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="154">
+      <c r="E35" s="157"/>
+      <c r="F35" s="155">
         <f>SUM(B29:B34)</f>
-        <v>470990</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="23.25">
+        <v>613490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
+        <v>139</v>
+      </c>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="138"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="154"/>
-    </row>
-    <row r="40" spans="1:6" ht="22.5">
+      <c r="E36" s="157"/>
+      <c r="F36" s="155"/>
+    </row>
+    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A40" s="123" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F40"/>
     </row>
-    <row r="43" spans="1:6" ht="22.5">
+    <row r="43" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A43" s="123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="23.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="129" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B44" s="114">
         <f>'C. Gains'!E30 *12</f>
-        <v>196560</v>
+        <v>211665</v>
       </c>
       <c r="C44" s="131"/>
       <c r="D44" s="131"/>
       <c r="E44" s="132"/>
       <c r="F44" s="131"/>
     </row>
-    <row r="45" spans="1:6" ht="23.25">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="129" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B45" s="134">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
       <c r="E45" s="132"/>
       <c r="F45" s="131"/>
     </row>
-    <row r="46" spans="1:6" ht="23.25">
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B46" s="134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" s="131"/>
       <c r="D46" s="131"/>
       <c r="E46" s="132"/>
       <c r="F46" s="131"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5">
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B47" s="147" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/rapports/evaluation/DRA_evaluation_Stefana2.xlsx
+++ b/rapports/evaluation/DRA_evaluation_Stefana2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Détails des coûts'!$A$1:$I$149</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Résumé financier'!$A$1:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -543,20 +543,20 @@
     <t>Primes pour les personnes licenciées</t>
   </si>
   <si>
-    <t>2,22 ans</t>
-  </si>
-  <si>
-    <t>2 ans et 3 mois</t>
+    <t>2,42ans</t>
+  </si>
+  <si>
+    <t>2 ans et 5 mois</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1808,14 +1808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="64.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="23" style="1" customWidth="1"/>
@@ -1824,12 +1824,12 @@
     <col min="6" max="255" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1847,14 +1847,14 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1863,28 +1863,28 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -1895,40 +1895,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>470990</v>
+        <v>512850</v>
       </c>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="16">
         <f>B15*0.15</f>
-        <v>70648.5</v>
+        <v>76927.5</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
@@ -1938,16 +1938,16 @@
       </c>
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -1968,123 +1968,123 @@
       </c>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2108,7 +2108,7 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="46.1640625" style="24" customWidth="1"/>
@@ -2121,12 +2121,12 @@
     <col min="9" max="16384" width="9.33203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="25.5" customHeight="1">
       <c r="E2" s="27" t="str">
         <f>'Résumé financier'!A3</f>
         <v>Projet Longue Durée en SI (2010/2011)</v>
@@ -2135,7 +2135,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>36</v>
       </c>
@@ -2144,20 +2144,20 @@
       <c r="H3" s="32"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="25"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="6.75" customHeight="1">
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="29.25" customHeight="1">
       <c r="B7" s="37" t="s">
         <v>38</v>
       </c>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="19.149999999999999" customHeight="1">
       <c r="B8" s="38" t="s">
         <v>43</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="38" t="s">
         <v>44</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="38" t="s">
         <v>45</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="38" t="s">
         <v>46</v>
       </c>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38" t="s">
         <v>47</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="42" t="s">
         <v>48</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -2300,17 +2300,17 @@
       <c r="F14" s="26"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="8.1" customHeight="1">
       <c r="B16" s="48"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="25.5">
       <c r="B17" s="37" t="s">
         <v>51</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="38" t="s">
         <v>54</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="42" t="s">
         <v>48</v>
       </c>
@@ -2413,20 +2413,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="18" customHeight="1">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="12.75" customHeight="1">
       <c r="B25" s="34" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="154"/>
     </row>
-    <row r="26" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="6.75" customHeight="1">
       <c r="B26" s="48"/>
       <c r="H26" s="154"/>
     </row>
-    <row r="27" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="25.5">
       <c r="B27" s="37" t="s">
         <v>51</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="38" t="s">
         <v>57</v>
       </c>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="42" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="20.25" customHeight="1">
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -2532,17 +2532,17 @@
       <c r="G34" s="26"/>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="12.75" customHeight="1">
       <c r="B35" s="34" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="154"/>
     </row>
-    <row r="36" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="8.25" customHeight="1">
       <c r="B36" s="48"/>
       <c r="H36" s="154"/>
     </row>
-    <row r="37" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="25.5">
       <c r="B37" s="52" t="s">
         <v>60</v>
       </c>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="H40" s="41"/>
     </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="H41" s="41"/>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H42" s="41"/>
     </row>
-    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="42" t="s">
         <v>48</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="21" customHeight="1">
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -2646,17 +2646,17 @@
       <c r="G44" s="26"/>
       <c r="H44" s="41"/>
     </row>
-    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="21" customHeight="1">
       <c r="B45" s="34" t="s">
         <v>153</v>
       </c>
       <c r="H45" s="154"/>
     </row>
-    <row r="46" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="21" customHeight="1">
       <c r="B46" s="48"/>
       <c r="H46" s="154"/>
     </row>
-    <row r="47" spans="2:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="34.15" customHeight="1">
       <c r="B47" s="37" t="s">
         <v>60</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="H47" s="41"/>
     </row>
-    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="21" customHeight="1">
       <c r="B48" s="38" t="s">
         <v>154</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="H48" s="41"/>
     </row>
-    <row r="49" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="21" customHeight="1">
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -2699,7 +2699,7 @@
       <c r="F49" s="40"/>
       <c r="H49" s="41"/>
     </row>
-    <row r="50" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="21" customHeight="1">
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H50" s="41"/>
     </row>
-    <row r="51" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="21" customHeight="1">
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H51" s="41"/>
     </row>
-    <row r="52" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="21" customHeight="1">
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="H52" s="41"/>
     </row>
-    <row r="53" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="21" customHeight="1">
       <c r="B53" s="42" t="s">
         <v>48</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="21" customHeight="1">
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -2763,17 +2763,17 @@
       <c r="G54" s="26"/>
       <c r="H54" s="41"/>
     </row>
-    <row r="55" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="21" customHeight="1">
       <c r="B55" s="34" t="s">
         <v>69</v>
       </c>
       <c r="H55" s="154"/>
     </row>
-    <row r="56" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="21" customHeight="1">
       <c r="B56" s="48"/>
       <c r="H56" s="154"/>
     </row>
-    <row r="57" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="28.7" customHeight="1">
       <c r="B57" s="37" t="s">
         <v>60</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H57" s="41"/>
     </row>
-    <row r="58" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="21" customHeight="1">
       <c r="B58" s="38" t="s">
         <v>155</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H58" s="41"/>
     </row>
-    <row r="59" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="21" customHeight="1">
       <c r="B59" s="38" t="s">
         <v>73</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="H59" s="41"/>
     </row>
-    <row r="60" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="21" customHeight="1">
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -2835,7 +2835,7 @@
       <c r="F60" s="40"/>
       <c r="H60" s="41"/>
     </row>
-    <row r="61" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="21" customHeight="1">
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
@@ -2843,7 +2843,7 @@
       <c r="F61" s="40"/>
       <c r="H61" s="41"/>
     </row>
-    <row r="62" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="21" customHeight="1">
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="H62" s="41"/>
     </row>
-    <row r="63" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="21" customHeight="1">
       <c r="B63" s="42" t="s">
         <v>48</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="21" customHeight="1">
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -2885,17 +2885,17 @@
       <c r="G64" s="26"/>
       <c r="H64" s="41"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="B65" s="34" t="s">
         <v>157</v>
       </c>
       <c r="H65" s="154"/>
     </row>
-    <row r="66" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="7.5" customHeight="1">
       <c r="B66" s="48"/>
       <c r="H66" s="154"/>
     </row>
-    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="25.5" customHeight="1">
       <c r="B67" s="37" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="H67" s="41"/>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="38" t="s">
         <v>156</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H68" s="41"/>
     </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="38" t="s">
         <v>72</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H69" s="41"/>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
@@ -2955,7 +2955,7 @@
       <c r="F70" s="40"/>
       <c r="H70" s="41"/>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
@@ -2963,7 +2963,7 @@
       <c r="F71" s="40"/>
       <c r="H71" s="41"/>
     </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
@@ -2971,7 +2971,7 @@
       <c r="F72" s="40"/>
       <c r="H72" s="41"/>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="H73" s="41"/>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="42" t="s">
         <v>48</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="8.1" customHeight="1">
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -3013,7 +3013,7 @@
       <c r="G75" s="26"/>
       <c r="H75" s="41"/>
     </row>
-    <row r="76" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="19.5" customHeight="1">
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
         <v>74</v>
@@ -3029,7 +3029,7 @@
         <v>332850</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="19.5" customHeight="1">
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -3038,7 +3038,7 @@
       <c r="G77" s="26"/>
       <c r="H77" s="61"/>
     </row>
-    <row r="78" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="19.5" customHeight="1">
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -3047,14 +3047,14 @@
       <c r="G78" s="26"/>
       <c r="H78" s="61"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.25" customHeight="1">
       <c r="A79" s="30" t="s">
         <v>76</v>
       </c>
       <c r="H79" s="32"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="9" customHeight="1">
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -3063,16 +3063,16 @@
       <c r="G80" s="26"/>
       <c r="H80" s="61"/>
     </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="6.75" customHeight="1">
       <c r="H82" s="50"/>
       <c r="I82" s="36"/>
     </row>
-    <row r="83" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="28.5" customHeight="1">
       <c r="B83" s="37" t="s">
         <v>38</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="I83" s="36"/>
     </row>
-    <row r="84" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B84" s="62" t="str">
         <f>B5</f>
         <v>a) Matériel informatique</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H84" s="41"/>
     </row>
-    <row r="85" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B85" s="62" t="str">
         <f>B15</f>
         <v>b) Portables, mobiles, …</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H85" s="41"/>
     </row>
-    <row r="86" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B86" s="62" t="str">
         <f>B25</f>
         <v>c) Elements actifs de réseau</v>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="H86" s="41"/>
     </row>
-    <row r="87" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B87" s="62" t="str">
         <f>B35</f>
         <v>d) Réalisation des applications (ratio : 10j/outil)</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H87" s="41"/>
     </row>
-    <row r="88" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B88" s="62" t="s">
         <v>162</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="H88" s="41"/>
     </row>
-    <row r="89" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="B89" s="62" t="s">
         <v>79</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H89" s="41"/>
     </row>
-    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="42" t="s">
         <v>48</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="12" customHeight="1">
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -3214,7 +3214,7 @@
       <c r="F91" s="26"/>
       <c r="H91" s="41"/>
     </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="F92" s="63" t="s">
         <v>80</v>
       </c>
@@ -3224,29 +3224,29 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="H93" s="65"/>
     </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="66" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="9" customHeight="1">
       <c r="A95" s="66"/>
       <c r="H95" s="65"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="B96" s="34" t="s">
         <v>82</v>
       </c>
       <c r="H96" s="50"/>
     </row>
-    <row r="97" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="6.75" customHeight="1">
       <c r="H97" s="41"/>
     </row>
-    <row r="98" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="25.5">
       <c r="B98" s="37" t="s">
         <v>83</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H98" s="41"/>
     </row>
-    <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
@@ -3270,7 +3270,7 @@
       <c r="F99" s="40"/>
       <c r="H99" s="41"/>
     </row>
-    <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
@@ -3278,7 +3278,7 @@
       <c r="F100" s="40"/>
       <c r="H100" s="41"/>
     </row>
-    <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="H101" s="41"/>
     </row>
-    <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8">
       <c r="B103" s="67" t="s">
         <v>88</v>
       </c>
@@ -3314,10 +3314,10 @@
       <c r="G103" s="26"/>
       <c r="H103" s="41"/>
     </row>
-    <row r="104" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="6.75" customHeight="1">
       <c r="H104" s="41"/>
     </row>
-    <row r="105" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" ht="27.75" customHeight="1">
       <c r="B105" s="52" t="s">
         <v>89</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H105" s="41"/>
     </row>
-    <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
       <c r="D106" s="49"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="H106" s="41"/>
     </row>
-    <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="49"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="H107" s="41"/>
     </row>
-    <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="49"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="H108" s="41"/>
     </row>
-    <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8">
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
@@ -3389,7 +3389,7 @@
       <c r="G110" s="26"/>
       <c r="H110" s="41"/>
     </row>
-    <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -3403,20 +3403,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8">
       <c r="H112" s="26"/>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="15">
       <c r="A113" s="66" t="s">
         <v>93</v>
       </c>
       <c r="B113" s="66"/>
       <c r="H113" s="50"/>
     </row>
-    <row r="114" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="8.1" customHeight="1">
       <c r="H114" s="41"/>
     </row>
-    <row r="115" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="35.25" customHeight="1">
       <c r="B115" s="37" t="s">
         <v>94</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H115" s="41"/>
     </row>
-    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="49"/>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H116" s="41"/>
     </row>
-    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
       <c r="D117" s="49"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="H117" s="41"/>
     </row>
-    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="49"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="H118" s="41"/>
     </row>
-    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
       <c r="D119" s="49"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H119" s="41"/>
     </row>
-    <row r="120" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="25.5">
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
@@ -3490,22 +3490,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="8.1" customHeight="1">
       <c r="H121" s="41"/>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="F122" s="51"/>
       <c r="G122" s="26"/>
       <c r="H122" s="41"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="F123" s="69" t="s">
         <v>99</v>
       </c>
       <c r="G123" s="70"/>
       <c r="H123" s="71"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="F124" s="72"/>
       <c r="G124" s="73"/>
       <c r="H124" s="74">
@@ -3513,20 +3513,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="F125" s="75"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="15">
       <c r="A126" s="66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="8.1" customHeight="1">
       <c r="H127" s="41"/>
     </row>
-    <row r="128" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="31.5" customHeight="1">
       <c r="B128" s="37" t="s">
         <v>101</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H128" s="41"/>
     </row>
-    <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="18" customHeight="1">
       <c r="B129" s="38" t="s">
         <v>106</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="H129" s="41"/>
     </row>
-    <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="18" customHeight="1">
       <c r="B130" s="38" t="s">
         <v>107</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="F130" s="40"/>
       <c r="H130" s="41"/>
     </row>
-    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="18" customHeight="1">
       <c r="B131" s="38" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="F131" s="40"/>
       <c r="H131" s="41"/>
     </row>
-    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="18" customHeight="1">
       <c r="B132" s="38" t="s">
         <v>109</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="F132" s="40"/>
       <c r="H132" s="41"/>
     </row>
-    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="18" customHeight="1">
       <c r="B133" s="64"/>
       <c r="C133" s="64"/>
       <c r="D133" s="64"/>
@@ -3601,35 +3601,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="12.75" customHeight="1">
       <c r="B134" s="76"/>
       <c r="H134" s="41"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="F135" s="75"/>
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="15">
       <c r="A136" s="66" t="s">
         <v>111</v>
       </c>
       <c r="F136" s="51"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="77"/>
       <c r="F138" s="76"/>
       <c r="H138" s="41"/>
     </row>
-    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1">
       <c r="A139" s="77"/>
       <c r="F139" s="64" t="s">
         <v>48</v>
       </c>
       <c r="H139" s="41"/>
     </row>
-    <row r="140" spans="1:8" ht="51.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="51.2" customHeight="1">
       <c r="B140" s="78" t="s">
         <v>164</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H140" s="41"/>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="81" t="s">
         <v>112</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="F141" s="80"/>
       <c r="H141" s="41"/>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="51"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
@@ -3665,7 +3665,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="51"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
@@ -3674,7 +3674,7 @@
       <c r="G143" s="26"/>
       <c r="H143" s="41"/>
     </row>
-    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="84"/>
       <c r="C144" s="55"/>
       <c r="D144" s="55" t="s">
@@ -3685,7 +3685,7 @@
       <c r="G144" s="26"/>
       <c r="H144" s="83"/>
     </row>
-    <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="51"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -3694,10 +3694,10 @@
       <c r="G145" s="26"/>
       <c r="H145" s="41"/>
     </row>
-    <row r="146" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="H146" s="41"/>
     </row>
-    <row r="147" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" ht="15">
       <c r="B147" s="26"/>
       <c r="C147" s="153" t="s">
         <v>115</v>
@@ -3711,205 +3711,205 @@
         <v>613490</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8">
       <c r="H148" s="26"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8">
       <c r="H149" s="26"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8">
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8">
       <c r="H151" s="26"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8">
       <c r="H152" s="26"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8">
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8">
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8">
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8">
       <c r="H156" s="26"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8">
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8">
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8">
       <c r="H159" s="26"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8">
       <c r="H160" s="26"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="8:8">
       <c r="H161" s="26"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="8:8">
       <c r="H162" s="26"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="8:8">
       <c r="H163" s="26"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="8:8">
       <c r="H164" s="26"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="8:8">
       <c r="H165" s="26"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="8:8">
       <c r="H166" s="26"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="8:8">
       <c r="H167" s="26"/>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="8:8">
       <c r="H168" s="26"/>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="8:8">
       <c r="H169" s="26"/>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="8:8">
       <c r="H170" s="26"/>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="8:8">
       <c r="H171" s="26"/>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="8:8">
       <c r="H172" s="26"/>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="8:8">
       <c r="H173" s="26"/>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="8:8">
       <c r="H174" s="26"/>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="8:8">
       <c r="H175" s="26"/>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="8:8">
       <c r="H176" s="26"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:8">
       <c r="H177" s="26"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:8">
       <c r="H178" s="26"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:8">
       <c r="H179" s="26"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:8">
       <c r="H180" s="26"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:8">
       <c r="H181" s="26"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:8">
       <c r="H182" s="26"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:8">
       <c r="H183" s="26"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8">
       <c r="H184" s="26"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:8">
       <c r="H185" s="26"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:8">
       <c r="H186" s="26"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:8">
       <c r="H187" s="26"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:8">
       <c r="H188" s="26"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:8">
       <c r="H189" s="26"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:8">
       <c r="H190" s="26"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:8">
       <c r="H191" s="26"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:8">
       <c r="H192" s="26"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:8">
       <c r="H193" s="26"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="8:8">
       <c r="H194" s="26"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="8:8">
       <c r="H195" s="26"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="8:8">
       <c r="H196" s="26"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="8:8">
       <c r="H197" s="26"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="8:8">
       <c r="H198" s="26"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="8:8">
       <c r="H199" s="26"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="8:8">
       <c r="H200" s="26"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="8:8">
       <c r="H201" s="26"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="8:8">
       <c r="H202" s="26"/>
     </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="8:8">
       <c r="H203" s="26"/>
     </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="8:8">
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="8:8">
       <c r="H205" s="26"/>
     </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="8:8">
       <c r="H206" s="26"/>
     </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="8:8">
       <c r="H207" s="26"/>
     </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="8:8">
       <c r="H208" s="26"/>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="8:8">
       <c r="H209" s="26"/>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="8:8">
       <c r="H210" s="26"/>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="8:8">
       <c r="H211" s="26"/>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="8:8">
       <c r="H212" s="26"/>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="8:8">
       <c r="H213" s="26"/>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="8:8">
       <c r="H214" s="26"/>
     </row>
   </sheetData>
@@ -3933,7 +3933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3943,7 +3943,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
@@ -3953,7 +3953,7 @@
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="J1" s="86"/>
       <c r="K1" s="87"/>
       <c r="L1" s="88"/>
@@ -3963,7 +3963,7 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="88"/>
     </row>
-    <row r="2" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="7.5" customHeight="1">
       <c r="J2" s="89"/>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
@@ -3973,7 +3973,7 @@
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
-    <row r="3" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="22.5">
       <c r="A3" s="90" t="str">
         <f>'Résumé financier'!A3</f>
         <v>Projet Longue Durée en SI (2010/2011)</v>
@@ -3995,14 +3995,14 @@
       <c r="P3" s="88"/>
       <c r="Q3" s="88"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="J4" s="95"/>
       <c r="K4" s="96"/>
       <c r="L4" s="96"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75">
       <c r="C5" s="97"/>
       <c r="J5" s="95"/>
       <c r="K5" s="96"/>
@@ -4010,7 +4010,7 @@
       <c r="M5" s="88"/>
       <c r="N5" s="88"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75">
       <c r="C6" s="11"/>
       <c r="J6" s="95"/>
       <c r="K6" s="96"/>
@@ -4018,75 +4018,75 @@
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="98"/>
       <c r="B8" s="88"/>
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="88"/>
     </row>
-    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="13.5">
       <c r="A9" s="99"/>
       <c r="B9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.5">
       <c r="A10" s="99"/>
       <c r="B10" s="88"/>
       <c r="K10" s="88"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="100"/>
       <c r="B11" s="88"/>
       <c r="K11" s="88"/>
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="97"/>
       <c r="B13" s="101"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="97"/>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
       <c r="F14" s="101"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="97"/>
       <c r="B16" s="101"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75">
       <c r="A18" s="97"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75">
       <c r="A20" s="97"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="88"/>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
@@ -4108,7 +4108,7 @@
       <c r="V21" s="88"/>
       <c r="W21" s="88"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="25.5">
       <c r="A22" s="102"/>
       <c r="B22" s="103" t="s">
         <v>116</v>
@@ -4137,7 +4137,7 @@
       <c r="V22" s="88"/>
       <c r="W22" s="88"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="107" t="s">
         <v>119</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="V23" s="88"/>
       <c r="W23" s="88"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="107" t="s">
         <v>120</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="V24" s="88"/>
       <c r="W24" s="88"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="151" t="s">
         <v>159</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="V25" s="88"/>
       <c r="W25" s="88"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="151" t="s">
         <v>160</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="V26" s="88"/>
       <c r="W26" s="88"/>
     </row>
-    <row r="27" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="38.25">
       <c r="A27" s="109" t="s">
         <v>121</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="V27" s="88"/>
       <c r="W27" s="88"/>
     </row>
-    <row r="28" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="45">
       <c r="A28" s="149" t="s">
         <v>158</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="V28" s="88"/>
       <c r="W28" s="88"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="107"/>
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
@@ -4352,7 +4352,7 @@
       <c r="V29" s="88"/>
       <c r="W29" s="88"/>
     </row>
-    <row r="30" spans="1:23" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="26.85" customHeight="1">
       <c r="A30" s="107"/>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -4380,7 +4380,7 @@
       <c r="V30" s="88"/>
       <c r="W30" s="88"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="107"/>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
@@ -4403,7 +4403,7 @@
       <c r="V31" s="88"/>
       <c r="W31" s="88"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="107"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -4426,7 +4426,7 @@
       <c r="V32" s="88"/>
       <c r="W32" s="88"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="111"/>
       <c r="B33" s="112"/>
       <c r="C33" s="112"/>
@@ -4449,7 +4449,7 @@
       <c r="V33" s="88"/>
       <c r="W33" s="88"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="I34" s="88"/>
       <c r="J34" s="88"/>
       <c r="K34" s="88"/>
@@ -4466,7 +4466,7 @@
       <c r="V34" s="88"/>
       <c r="W34" s="88"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
@@ -4483,7 +4483,7 @@
       <c r="V35" s="88"/>
       <c r="W35" s="88"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
@@ -4500,7 +4500,7 @@
       <c r="V36" s="88"/>
       <c r="W36" s="88"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="I37" s="88"/>
       <c r="J37" s="88"/>
       <c r="K37" s="88"/>
@@ -4526,17 +4526,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="87.1640625" style="114" customWidth="1"/>
     <col min="2" max="2" width="23" style="114" customWidth="1"/>
@@ -4549,7 +4549,7 @@
     <col min="9" max="16384" width="9.33203125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="158" t="s">
         <v>123</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="G1" s="158"/>
       <c r="H1" s="158"/>
     </row>
-    <row r="2" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="116" customFormat="1" ht="25.5">
       <c r="A2" s="115"/>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -4569,7 +4569,7 @@
       <c r="E2" s="115"/>
       <c r="F2" s="115"/>
     </row>
-    <row r="3" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="116" customFormat="1" ht="25.5">
       <c r="A3" s="117" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="G3" s="159"/>
       <c r="H3" s="159"/>
     </row>
-    <row r="4" spans="1:8" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="116" customFormat="1" ht="25.5">
       <c r="A4" s="119"/>
       <c r="B4" s="120"/>
       <c r="C4" s="115"/>
@@ -4593,37 +4593,37 @@
       <c r="G4" s="121"/>
       <c r="H4" s="121"/>
     </row>
-    <row r="5" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="122" customFormat="1" ht="23.25"/>
+    <row r="6" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A6" s="123" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A7" s="122" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A8" s="122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A9" s="122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="122" customFormat="1" ht="23.25"/>
+    <row r="11" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A11" s="123" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A12" s="123"/>
     </row>
-    <row r="13" spans="1:8" s="124" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="124" customFormat="1" ht="56.25" customHeight="1">
       <c r="B13" s="125" t="s">
         <v>127</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="124" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="127" t="s">
         <v>129</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A15" s="129" t="s">
         <v>131</v>
       </c>
@@ -4657,11 +4657,11 @@
       <c r="D15" s="131"/>
       <c r="E15" s="132"/>
       <c r="F15" s="131">
-        <f>'Détails des coûts'!H76</f>
-        <v>332850</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+        <f>'Détails des coûts'!H76 + 180000</f>
+        <v>512850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="122" customFormat="1" ht="23.25">
       <c r="A16" s="129" t="s">
         <v>132</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>100640</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A17" s="129" t="s">
         <v>134</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A18" s="129" t="s">
         <v>135</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A19" s="129" t="s">
         <v>136</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A20" s="133" t="s">
         <v>137</v>
       </c>
@@ -4731,12 +4731,9 @@
       <c r="C20" s="131"/>
       <c r="D20" s="131"/>
       <c r="E20" s="132"/>
-      <c r="F20" s="131">
-        <f>'Détails des coûts'!H142</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F20" s="131"/>
+    </row>
+    <row r="21" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A21" s="135" t="s">
         <v>138</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>613490</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A22" s="137" t="s">
         <v>139</v>
       </c>
@@ -4762,17 +4759,17 @@
       <c r="E22" s="157"/>
       <c r="F22" s="156"/>
     </row>
-    <row r="23" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A23" s="139"/>
       <c r="B23" s="140"/>
     </row>
-    <row r="24" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" s="122" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="122" customFormat="1" ht="23.25"/>
+    <row r="25" spans="1:6" s="122" customFormat="1" ht="23.25">
       <c r="A25" s="123" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="61.5">
       <c r="A27" s="124"/>
       <c r="B27" s="141" t="s">
         <v>141</v>
@@ -4790,25 +4787,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="23.25">
       <c r="A28" s="127" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="23.25">
       <c r="A29" s="129" t="s">
         <v>147</v>
       </c>
       <c r="B29" s="143">
         <f>F15</f>
-        <v>332850</v>
+        <v>512850</v>
       </c>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="145"/>
       <c r="F29" s="146"/>
     </row>
-    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="23.25">
       <c r="A30" s="129" t="s">
         <v>132</v>
       </c>
@@ -4824,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="23.25">
       <c r="A31" s="129" t="s">
         <v>134</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="23.25">
       <c r="A32" s="129" t="s">
         <v>135</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="23.25">
       <c r="A33" s="129" t="s">
         <v>136</v>
       </c>
@@ -4869,13 +4866,12 @@
       <c r="E33" s="132"/>
       <c r="F33" s="131"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="23.25">
       <c r="A34" s="133" t="s">
         <v>137</v>
       </c>
       <c r="B34" s="134">
-        <f>'Détails des coûts'!H142</f>
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="131"/>
       <c r="D34" s="131"/>
@@ -4885,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="23.25">
       <c r="A35" s="135" t="s">
         <v>138</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>613490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="23.25">
       <c r="A36" s="137" t="s">
         <v>139</v>
       </c>
@@ -4911,18 +4907,18 @@
       <c r="E36" s="157"/>
       <c r="F36" s="155"/>
     </row>
-    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="22.5">
       <c r="A40" s="123" t="s">
         <v>148</v>
       </c>
       <c r="F40"/>
     </row>
-    <row r="43" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="22.5">
       <c r="A43" s="123" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="23.25">
       <c r="A44" s="129" t="s">
         <v>161</v>
       </c>
@@ -4935,19 +4931,19 @@
       <c r="E44" s="132"/>
       <c r="F44" s="131"/>
     </row>
-    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="23.25">
       <c r="A45" s="129" t="s">
         <v>150</v>
       </c>
       <c r="B45" s="134">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
       <c r="E45" s="132"/>
       <c r="F45" s="131"/>
     </row>
-    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="23.25">
       <c r="A46" s="129" t="s">
         <v>151</v>
       </c>
@@ -4959,7 +4955,7 @@
       <c r="E46" s="132"/>
       <c r="F46" s="131"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="25.5">
       <c r="B47" s="147" t="s">
         <v>152</v>
       </c>
